--- a/biology/Médecine/Quarraisha_Abdool_Karim/Quarraisha_Abdool_Karim.xlsx
+++ b/biology/Médecine/Quarraisha_Abdool_Karim/Quarraisha_Abdool_Karim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quarraisha Abdool Karim est une épidémiologiste sud-africaine, née le 20 mars 1960, dont les travaux portent essentiellement pour la prévention et le traitement du Virus de l'immunodéficience humaine (VIH) auprès des femmes. Elle est notamment lauréate de la plus haute distinction d'Afrique du Sud, l'Ordre de Mapungubwe (bronze)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quarraisha Abdool Karim est une épidémiologiste sud-africaine, née le 20 mars 1960, dont les travaux portent essentiellement pour la prévention et le traitement du Virus de l'immunodéficience humaine (VIH) auprès des femmes. Elle est notamment lauréate de la plus haute distinction d'Afrique du Sud, l'Ordre de Mapungubwe (bronze).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est membre de l'Académie des Sciences d'Afrique du Sud, et de l'Académie africaine des sciences[2].
-Lors de la XVIIIe conférence internationale sur le SIDA (en), l'annonce des résultats de l'étude CAPRISA 004[3] a donné lieu à une standing ovation, ce qui est fort rare lors d'un congrès scientifique[4].
-Elle est mondialement connue pour avoir montré l'efficacité d'un gel topique anti-VIH permettant de réduire considérablement les infections par le virus, et en même temps donne aux femmes un contrôle direct et effectif sur leur santé[5].
-Elle mène actuellement une étude dans une communauté rurale au KwaZulu-Natal pour essayer de comprendre comment le VIH se propage parmi les jeunes femmes et les écolières. « Elle utilise un séquençage génétique du Sida de chaque personne infectée afin de comprendre les liens et les sources potentielles du virus. »[5].
-Elle est mariée avec Salim Abdool Karim (en) avec qui elle avait mené des recherches[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est membre de l'Académie des Sciences d'Afrique du Sud, et de l'Académie africaine des sciences.
+Lors de la XVIIIe conférence internationale sur le SIDA (en), l'annonce des résultats de l'étude CAPRISA 004 a donné lieu à une standing ovation, ce qui est fort rare lors d'un congrès scientifique.
+Elle est mondialement connue pour avoir montré l'efficacité d'un gel topique anti-VIH permettant de réduire considérablement les infections par le virus, et en même temps donne aux femmes un contrôle direct et effectif sur leur santé.
+Elle mène actuellement une étude dans une communauté rurale au KwaZulu-Natal pour essayer de comprendre comment le VIH se propage parmi les jeunes femmes et les écolières. « Elle utilise un séquençage génétique du Sida de chaque personne infectée afin de comprendre les liens et les sources potentielles du virus. ».
+Elle est mariée avec Salim Abdool Karim (en) avec qui elle avait mené des recherches.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 26 octobre 2014 à Mascate, Quarraisha Karim remporte le prix TWAS-Lenovo Science 2014[5]. Elle est la première femme à recevoir ce prix de 100 000 $[7], un des prix scientifiques les plus prestigieux attribués à des scientifiques des pays en développement, et remis lors du congrès annuel de The World Academy of Sciences (Twas).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 octobre 2014 à Mascate, Quarraisha Karim remporte le prix TWAS-Lenovo Science 2014. Elle est la première femme à recevoir ce prix de 100 000 $, un des prix scientifiques les plus prestigieux attribués à des scientifiques des pays en développement, et remis lors du congrès annuel de The World Academy of Sciences (Twas).
 En 2016, elle est lauréate du Prix L'Oréal-Unesco pour les femmes et la science « pour la prévention et au traitement du VIH auprès des femmes africaines »
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HIV/AIDS in South Africa, 2010[8]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HIV/AIDS in South Africa, 2010
 Trends in HIV/AIDS infection : beyond current statistics
 Women and AIDS : the imperative for a gendered prognosis and prevention policy
 Reducing the Risk of HIV Infection among South African Sex Workers: Socioeconomic and Gender Barriers. American Journal of Public Health. 1995.</t>
